--- a/Consequence_Table/BoRVOI_IBMR_final__results_v3 1.xlsx
+++ b/Consequence_Table/BoRVOI_IBMR_final__results_v3 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/bmahardja_usbr_gov/Documents/Documents/GitHub/DeltaSmelt_SummerFallX2_VOI/Consequence_Table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{2F08E8C7-280A-4A8F-B876-CB14B1229777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A63367C9-F6DF-46FA-AD27-AB6D79D17E53}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="13_ncr:1_{2F08E8C7-280A-4A8F-B876-CB14B1229777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B55A480A-F268-472A-89FE-DA0758CFF593}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{9F8F4939-3C7D-4924-953A-51F1997FE89C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{9F8F4939-3C7D-4924-953A-51F1997FE89C}"/>
   </bookViews>
   <sheets>
     <sheet name="IBMRv1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="38">
   <si>
     <t>S74</t>
   </si>
@@ -152,13 +153,16 @@
   <si>
     <t>IBMRv2</t>
   </si>
+  <si>
+    <t>1996-2014</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -189,11 +193,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2531,6 +2536,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -2830,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931B29C3-DFB1-4324-838D-20404E986B8C}">
   <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:U23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5516,7 +5525,7 @@
   <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:Y23"/>
+      <selection activeCell="B33" sqref="B33:U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8659,7 +8668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E7CECE-13E4-4B54-B88D-4001F84303BC}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H40"/>
     </sheetView>
   </sheetViews>
@@ -9586,15 +9595,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05B2BDB-56F4-44BD-A584-3A215107CB1D}">
-  <dimension ref="B1:V4"/>
+  <dimension ref="B1:AP9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B1" sqref="B1:AP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -9607,8 +9616,20 @@
       <c r="R1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -9669,10 +9690,70 @@
       <c r="V2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>0.92104873953440503</v>
@@ -9734,70 +9815,815 @@
       <c r="V3">
         <v>0.89476447229331102</v>
       </c>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W3">
+        <v>0.94938044926493603</v>
+      </c>
+      <c r="X3">
+        <v>0.96806725218411305</v>
+      </c>
+      <c r="Y3">
+        <v>0.94944001724377003</v>
+      </c>
+      <c r="Z3">
+        <v>0.92356333586795802</v>
+      </c>
+      <c r="AA3">
+        <v>0.97590381658999903</v>
+      </c>
+      <c r="AB3">
+        <v>0.91838147908781798</v>
+      </c>
+      <c r="AC3">
+        <v>0.92060335060746401</v>
+      </c>
+      <c r="AD3">
+        <v>0.91944893040768105</v>
+      </c>
+      <c r="AE3">
+        <v>0.92010276863599505</v>
+      </c>
+      <c r="AF3">
+        <v>0.92311432519418801</v>
+      </c>
+      <c r="AG3">
+        <v>0.84609303672366398</v>
+      </c>
+      <c r="AH3">
+        <v>0.78865257522550802</v>
+      </c>
+      <c r="AI3">
+        <v>0.81148618980418197</v>
+      </c>
+      <c r="AJ3">
+        <v>0.78711939203336101</v>
+      </c>
+      <c r="AK3">
+        <v>0.84769482923755302</v>
+      </c>
+      <c r="AL3">
+        <v>0.87871728456422604</v>
+      </c>
+      <c r="AM3">
+        <v>0.82871449802539399</v>
+      </c>
+      <c r="AN3">
+        <v>0.84391478498513695</v>
+      </c>
+      <c r="AO3">
+        <v>0.79683122565895304</v>
+      </c>
+      <c r="AP3">
+        <v>0.89962684726208397</v>
+      </c>
+    </row>
+    <row r="4" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>0.94938044926493603</v>
+        <v>0.63654725503918697</v>
       </c>
       <c r="D4">
-        <v>0.96806725218411305</v>
+        <v>0.65811253670056702</v>
       </c>
       <c r="E4">
-        <v>0.94944001724377003</v>
+        <v>0.65395067817970498</v>
       </c>
       <c r="F4">
-        <v>0.92356333586795802</v>
+        <v>0.64669218923238903</v>
       </c>
       <c r="G4">
-        <v>0.97590381658999903</v>
+        <v>0.65841769186726096</v>
       </c>
       <c r="H4">
-        <v>0.91838147908781798</v>
+        <v>0.62796363628477103</v>
       </c>
       <c r="I4">
-        <v>0.92060335060746401</v>
+        <v>0.62767076010857403</v>
       </c>
       <c r="J4">
-        <v>0.91944893040768105</v>
+        <v>0.62855072636209597</v>
       </c>
       <c r="K4">
-        <v>0.92010276863599505</v>
+        <v>0.62193806691096998</v>
       </c>
       <c r="L4">
-        <v>0.92311432519418801</v>
+        <v>0.621632688439686</v>
       </c>
       <c r="M4">
-        <v>0.84609303672366398</v>
+        <v>0.58917060592753101</v>
       </c>
       <c r="N4">
-        <v>0.78865257522550802</v>
+        <v>0.54186149579909804</v>
       </c>
       <c r="O4">
-        <v>0.81148618980418197</v>
+        <v>0.55999325882020301</v>
       </c>
       <c r="P4">
-        <v>0.78711939203336101</v>
+        <v>0.54415113120172798</v>
       </c>
       <c r="Q4">
-        <v>0.84769482923755302</v>
+        <v>0.579737513295847</v>
       </c>
       <c r="R4">
-        <v>0.87871728456422604</v>
+        <v>0.60733469603847701</v>
       </c>
       <c r="S4">
-        <v>0.82871449802539399</v>
+        <v>0.56437516410938204</v>
       </c>
       <c r="T4">
-        <v>0.84391478498513695</v>
+        <v>0.57892858464428198</v>
       </c>
       <c r="U4">
-        <v>0.79683122565895304</v>
+        <v>0.558675883828883</v>
       </c>
       <c r="V4">
-        <v>0.89962684726208397</v>
+        <v>0.60649129992909701</v>
+      </c>
+      <c r="W4">
+        <v>0.741473803848548</v>
+      </c>
+      <c r="X4">
+        <v>0.75034993849236598</v>
+      </c>
+      <c r="Y4">
+        <v>0.74527351585804902</v>
+      </c>
+      <c r="Z4">
+        <v>0.71847421658372601</v>
+      </c>
+      <c r="AA4">
+        <v>0.76222213644662495</v>
+      </c>
+      <c r="AB4">
+        <v>0.71015643040237497</v>
+      </c>
+      <c r="AC4">
+        <v>0.714523756174824</v>
+      </c>
+      <c r="AD4">
+        <v>0.71490181826486099</v>
+      </c>
+      <c r="AE4">
+        <v>0.71610588887114301</v>
+      </c>
+      <c r="AF4">
+        <v>0.70949908768848902</v>
+      </c>
+      <c r="AG4">
+        <v>0.652275256977775</v>
+      </c>
+      <c r="AH4">
+        <v>0.59772817264836897</v>
+      </c>
+      <c r="AI4">
+        <v>0.61647557816707499</v>
+      </c>
+      <c r="AJ4">
+        <v>0.60264716215803305</v>
+      </c>
+      <c r="AK4">
+        <v>0.649149811046008</v>
+      </c>
+      <c r="AL4">
+        <v>0.67098274641594502</v>
+      </c>
+      <c r="AM4">
+        <v>0.63357657593988503</v>
+      </c>
+      <c r="AN4">
+        <v>0.64160639294547595</v>
+      </c>
+      <c r="AO4">
+        <v>0.60591688388909903</v>
+      </c>
+      <c r="AP4">
+        <v>0.69111676813415301</v>
+      </c>
+    </row>
+    <row r="5" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>1.2311281656253199</v>
+      </c>
+      <c r="D5">
+        <v>1.2567274776800399</v>
+      </c>
+      <c r="E5">
+        <v>1.24397610161024</v>
+      </c>
+      <c r="F5">
+        <v>1.2197873703547699</v>
+      </c>
+      <c r="G5">
+        <v>1.24405091942864</v>
+      </c>
+      <c r="H5">
+        <v>1.2403453751465601</v>
+      </c>
+      <c r="I5">
+        <v>1.2387453087654701</v>
+      </c>
+      <c r="J5">
+        <v>1.2339532537662601</v>
+      </c>
+      <c r="K5">
+        <v>1.23396287229811</v>
+      </c>
+      <c r="L5">
+        <v>1.22946567354508</v>
+      </c>
+      <c r="M5">
+        <v>1.17425212651432</v>
+      </c>
+      <c r="N5">
+        <v>1.1211016974882599</v>
+      </c>
+      <c r="O5">
+        <v>1.1481844277577999</v>
+      </c>
+      <c r="P5">
+        <v>1.14318484258662</v>
+      </c>
+      <c r="Q5">
+        <v>1.1897461035201899</v>
+      </c>
+      <c r="R5">
+        <v>1.1871064590840601</v>
+      </c>
+      <c r="S5">
+        <v>1.1381859950575499</v>
+      </c>
+      <c r="T5">
+        <v>1.1677576567618499</v>
+      </c>
+      <c r="U5">
+        <v>1.1081268409810701</v>
+      </c>
+      <c r="V5">
+        <v>1.20229121154999</v>
+      </c>
+      <c r="W5">
+        <v>1.1918994031399699</v>
+      </c>
+      <c r="X5">
+        <v>1.2285804412801</v>
+      </c>
+      <c r="Y5">
+        <v>1.19651677284214</v>
+      </c>
+      <c r="Z5">
+        <v>1.1591923885409801</v>
+      </c>
+      <c r="AA5">
+        <v>1.2231097114831799</v>
+      </c>
+      <c r="AB5">
+        <v>1.1678726722895501</v>
+      </c>
+      <c r="AC5">
+        <v>1.1611389672719601</v>
+      </c>
+      <c r="AD5">
+        <v>1.1574394466032401</v>
+      </c>
+      <c r="AE5">
+        <v>1.16509733141434</v>
+      </c>
+      <c r="AF5">
+        <v>1.1683279253782699</v>
+      </c>
+      <c r="AG5">
+        <v>1.0750370978046599</v>
+      </c>
+      <c r="AH5">
+        <v>1.0154601117291999</v>
+      </c>
+      <c r="AI5">
+        <v>1.04229004698755</v>
+      </c>
+      <c r="AJ5">
+        <v>1.0135378119309999</v>
+      </c>
+      <c r="AK5">
+        <v>1.0808680590545201</v>
+      </c>
+      <c r="AL5">
+        <v>1.12264406684017</v>
+      </c>
+      <c r="AM5">
+        <v>1.0686602454487599</v>
+      </c>
+      <c r="AN5">
+        <v>1.0824292862092699</v>
+      </c>
+      <c r="AO5">
+        <v>1.01811267425412</v>
+      </c>
+      <c r="AP5">
+        <v>1.14083447184844</v>
+      </c>
+    </row>
+    <row r="6" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1.2098196129743899</v>
+      </c>
+      <c r="D6">
+        <v>1.24568031154989</v>
+      </c>
+      <c r="E6">
+        <v>1.2277118516750201</v>
+      </c>
+      <c r="F6">
+        <v>1.2116531497541401</v>
+      </c>
+      <c r="G6">
+        <v>1.2457430854285101</v>
+      </c>
+      <c r="H6">
+        <v>1.20747998798779</v>
+      </c>
+      <c r="I6">
+        <v>1.20951005281971</v>
+      </c>
+      <c r="J6">
+        <v>1.2052937591453201</v>
+      </c>
+      <c r="K6">
+        <v>1.1966811705409699</v>
+      </c>
+      <c r="L6">
+        <v>1.19441763127763</v>
+      </c>
+      <c r="M6">
+        <v>1.1363106056343399</v>
+      </c>
+      <c r="N6">
+        <v>1.0485114120582</v>
+      </c>
+      <c r="O6">
+        <v>1.08528820882551</v>
+      </c>
+      <c r="P6">
+        <v>1.0561389201034601</v>
+      </c>
+      <c r="Q6">
+        <v>1.1430054519185699</v>
+      </c>
+      <c r="R6">
+        <v>1.1403683798390301</v>
+      </c>
+      <c r="S6">
+        <v>1.0993892406250401</v>
+      </c>
+      <c r="T6">
+        <v>1.1165209232039099</v>
+      </c>
+      <c r="U6">
+        <v>1.08586367792264</v>
+      </c>
+      <c r="V6">
+        <v>1.18067209956825</v>
+      </c>
+      <c r="W6">
+        <v>1.02880596903333</v>
+      </c>
+      <c r="X6">
+        <v>1.0469923564807999</v>
+      </c>
+      <c r="Y6">
+        <v>1.02911615558319</v>
+      </c>
+      <c r="Z6">
+        <v>0.98651369106434394</v>
+      </c>
+      <c r="AA6">
+        <v>1.0611193278408</v>
+      </c>
+      <c r="AB6">
+        <v>1.0140807792369</v>
+      </c>
+      <c r="AC6">
+        <v>1.02562881201597</v>
+      </c>
+      <c r="AD6">
+        <v>1.0209692089689499</v>
+      </c>
+      <c r="AE6">
+        <v>1.02337069003161</v>
+      </c>
+      <c r="AF6">
+        <v>1.02057450612336</v>
+      </c>
+      <c r="AG6">
+        <v>0.93642298085256703</v>
+      </c>
+      <c r="AH6">
+        <v>0.860692662612773</v>
+      </c>
+      <c r="AI6">
+        <v>0.87774209868706099</v>
+      </c>
+      <c r="AJ6">
+        <v>0.86734315540953999</v>
+      </c>
+      <c r="AK6">
+        <v>0.93213807410136595</v>
+      </c>
+      <c r="AL6">
+        <v>0.95031091075581398</v>
+      </c>
+      <c r="AM6">
+        <v>0.89232332550264704</v>
+      </c>
+      <c r="AN6">
+        <v>0.90874824715900704</v>
+      </c>
+      <c r="AO6">
+        <v>0.85932541868585</v>
+      </c>
+      <c r="AP6">
+        <v>0.974179556433307</v>
+      </c>
+    </row>
+    <row r="7" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0.70101780963404903</v>
+      </c>
+      <c r="D7">
+        <v>0.72523242859379</v>
+      </c>
+      <c r="E7">
+        <v>0.71034012297194904</v>
+      </c>
+      <c r="F7">
+        <v>0.70705838461265902</v>
+      </c>
+      <c r="G7">
+        <v>0.71371632638627702</v>
+      </c>
+      <c r="H7">
+        <v>0.68445093840943605</v>
+      </c>
+      <c r="I7">
+        <v>0.68971550994907105</v>
+      </c>
+      <c r="J7">
+        <v>0.68638257773918898</v>
+      </c>
+      <c r="K7">
+        <v>0.68909365243716303</v>
+      </c>
+      <c r="L7">
+        <v>0.67885263336420898</v>
+      </c>
+      <c r="M7">
+        <v>0.65247712029873495</v>
+      </c>
+      <c r="N7">
+        <v>0.62932681213489705</v>
+      </c>
+      <c r="O7">
+        <v>0.64695185858403703</v>
+      </c>
+      <c r="P7">
+        <v>0.61908177101555695</v>
+      </c>
+      <c r="Q7">
+        <v>0.65445405507021104</v>
+      </c>
+      <c r="R7">
+        <v>0.68762796169903695</v>
+      </c>
+      <c r="S7">
+        <v>0.66690894396651601</v>
+      </c>
+      <c r="T7">
+        <v>0.67442741843644105</v>
+      </c>
+      <c r="U7">
+        <v>0.65449206489112599</v>
+      </c>
+      <c r="V7">
+        <v>0.69923850344410099</v>
+      </c>
+      <c r="W7">
+        <v>0.88503051987343895</v>
+      </c>
+      <c r="X7">
+        <v>0.91358715397754098</v>
+      </c>
+      <c r="Y7">
+        <v>0.89258973853634804</v>
+      </c>
+      <c r="Z7">
+        <v>0.88170756741082501</v>
+      </c>
+      <c r="AA7">
+        <v>0.91375306580736504</v>
+      </c>
+      <c r="AB7">
+        <v>0.841325237188428</v>
+      </c>
+      <c r="AC7">
+        <v>0.83592442907718301</v>
+      </c>
+      <c r="AD7">
+        <v>0.83798461500943899</v>
+      </c>
+      <c r="AE7">
+        <v>0.83788974933444105</v>
+      </c>
+      <c r="AF7">
+        <v>0.84440212391708802</v>
+      </c>
+      <c r="AG7">
+        <v>0.78081835595906501</v>
+      </c>
+      <c r="AH7">
+        <v>0.73806914096089304</v>
+      </c>
+      <c r="AI7">
+        <v>0.76288971647445203</v>
+      </c>
+      <c r="AJ7">
+        <v>0.72213212045965802</v>
+      </c>
+      <c r="AK7">
+        <v>0.78832219881096799</v>
+      </c>
+      <c r="AL7">
+        <v>0.84404404992411997</v>
+      </c>
+      <c r="AM7">
+        <v>0.80516515777251596</v>
+      </c>
+      <c r="AN7">
+        <v>0.81806663645380395</v>
+      </c>
+      <c r="AO7">
+        <v>0.77197180830211398</v>
+      </c>
+      <c r="AP7">
+        <v>0.86648682533963495</v>
+      </c>
+    </row>
+    <row r="8" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>1.3629119386847299</v>
+      </c>
+      <c r="D8">
+        <v>1.39601287161724</v>
+      </c>
+      <c r="E8">
+        <v>1.35815482407064</v>
+      </c>
+      <c r="F8">
+        <v>1.3632043706411501</v>
+      </c>
+      <c r="G8">
+        <v>1.3856276839111501</v>
+      </c>
+      <c r="H8">
+        <v>1.06812343308003</v>
+      </c>
+      <c r="I8">
+        <v>1.0714450500488999</v>
+      </c>
+      <c r="J8">
+        <v>1.0647378575170501</v>
+      </c>
+      <c r="K8">
+        <v>1.0600397668621699</v>
+      </c>
+      <c r="L8">
+        <v>1.0564502160656499</v>
+      </c>
+      <c r="M8">
+        <v>1.00983950081094</v>
+      </c>
+      <c r="N8">
+        <v>0.93824032245512201</v>
+      </c>
+      <c r="O8">
+        <v>0.97098181952780604</v>
+      </c>
+      <c r="P8">
+        <v>0.939043825758205</v>
+      </c>
+      <c r="Q8">
+        <v>1.0247625031765399</v>
+      </c>
+      <c r="R8">
+        <v>1.3104080722199301</v>
+      </c>
+      <c r="S8">
+        <v>1.2391321111015301</v>
+      </c>
+      <c r="T8">
+        <v>1.24875209984569</v>
+      </c>
+      <c r="U8">
+        <v>1.2267909534614201</v>
+      </c>
+      <c r="V8">
+        <v>1.34473879964773</v>
+      </c>
+      <c r="W8">
+        <v>1.19806457885439</v>
+      </c>
+      <c r="X8">
+        <v>1.21398276425677</v>
+      </c>
+      <c r="Y8">
+        <v>1.18079447503349</v>
+      </c>
+      <c r="Z8">
+        <v>1.1515417267649599</v>
+      </c>
+      <c r="AA8">
+        <v>1.2275147802923401</v>
+      </c>
+      <c r="AB8">
+        <v>0.906536637192074</v>
+      </c>
+      <c r="AC8">
+        <v>0.91358808936346103</v>
+      </c>
+      <c r="AD8">
+        <v>0.91078371902221</v>
+      </c>
+      <c r="AE8">
+        <v>0.91055187585313002</v>
+      </c>
+      <c r="AF8">
+        <v>0.91387383315537196</v>
+      </c>
+      <c r="AG8">
+        <v>0.84169864730132904</v>
+      </c>
+      <c r="AH8">
+        <v>0.77916970562854104</v>
+      </c>
+      <c r="AI8">
+        <v>0.79636704249246804</v>
+      </c>
+      <c r="AJ8">
+        <v>0.78139358257175695</v>
+      </c>
+      <c r="AK8">
+        <v>0.84490534951410501</v>
+      </c>
+      <c r="AL8">
+        <v>1.12944753467328</v>
+      </c>
+      <c r="AM8">
+        <v>1.0512747613281399</v>
+      </c>
+      <c r="AN8">
+        <v>1.0580561875828101</v>
+      </c>
+      <c r="AO8">
+        <v>1.0063450632643101</v>
+      </c>
+      <c r="AP8">
+        <v>1.157171431092</v>
+      </c>
+    </row>
+    <row r="9" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>0.53737565259993703</v>
+      </c>
+      <c r="D9">
+        <v>0.55028710224474198</v>
+      </c>
+      <c r="E9">
+        <v>0.55554956781599996</v>
+      </c>
+      <c r="F9">
+        <v>0.53311628308014503</v>
+      </c>
+      <c r="G9">
+        <v>0.55327467237538197</v>
+      </c>
+      <c r="H9">
+        <v>0.74301488671953997</v>
+      </c>
+      <c r="I9">
+        <v>0.74688408672325501</v>
+      </c>
+      <c r="J9">
+        <v>0.74779829348982596</v>
+      </c>
+      <c r="K9">
+        <v>0.74659231404260795</v>
+      </c>
+      <c r="L9">
+        <v>0.73902185284579702</v>
+      </c>
+      <c r="M9">
+        <v>0.70980508120430097</v>
+      </c>
+      <c r="N9">
+        <v>0.67647965229154094</v>
+      </c>
+      <c r="O9">
+        <v>0.69533534134478703</v>
+      </c>
+      <c r="P9">
+        <v>0.67163413369019398</v>
+      </c>
+      <c r="Q9">
+        <v>0.69532553017750798</v>
+      </c>
+      <c r="R9">
+        <v>0.49962296743253898</v>
+      </c>
+      <c r="S9">
+        <v>0.48744731105626199</v>
+      </c>
+      <c r="T9">
+        <v>0.508600153945589</v>
+      </c>
+      <c r="U9">
+        <v>0.47442401766924602</v>
+      </c>
+      <c r="V9">
+        <v>0.51101197313632796</v>
+      </c>
+      <c r="W9">
+        <v>0.68946204079215101</v>
+      </c>
+      <c r="X9">
+        <v>0.70914233879380295</v>
+      </c>
+      <c r="Y9">
+        <v>0.70347020867500398</v>
+      </c>
+      <c r="Z9">
+        <v>0.68190490526460401</v>
+      </c>
+      <c r="AA9">
+        <v>0.71191789592425903</v>
+      </c>
+      <c r="AB9">
+        <v>0.93492125105602197</v>
+      </c>
+      <c r="AC9">
+        <v>0.93033737678638395</v>
+      </c>
+      <c r="AD9">
+        <v>0.931498366548978</v>
+      </c>
+      <c r="AE9">
+        <v>0.93339903632519505</v>
+      </c>
+      <c r="AF9">
+        <v>0.93597275412247105</v>
+      </c>
+      <c r="AG9">
+        <v>0.85217280738255097</v>
+      </c>
+      <c r="AH9">
+        <v>0.80188025171210897</v>
+      </c>
+      <c r="AI9">
+        <v>0.832744807636563</v>
+      </c>
+      <c r="AJ9">
+        <v>0.79506095055959203</v>
+      </c>
+      <c r="AK9">
+        <v>0.85154540752648</v>
+      </c>
+      <c r="AL9">
+        <v>0.62222999364878295</v>
+      </c>
+      <c r="AM9">
+        <v>0.59751924443922899</v>
+      </c>
+      <c r="AN9">
+        <v>0.61838601448478203</v>
+      </c>
+      <c r="AO9">
+        <v>0.57805352347486105</v>
+      </c>
+      <c r="AP9">
+        <v>0.63639443914441396</v>
       </c>
     </row>
   </sheetData>
@@ -9809,7 +10635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF97A4FF-A67D-466C-9FC8-ADC5FD4F072E}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D5"/>
     </sheetView>
   </sheetViews>
@@ -10122,4 +10948,1879 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FD3BFF-D7A4-4DAB-98AD-3C34A4E92AE4}">
+  <dimension ref="A1:V41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.92104873953440503</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.63654725503918697</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.2311281656253199</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1.3629119386847299</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.53737565259993703</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1.2098196129743899</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.70101780963404903</v>
+      </c>
+      <c r="L2" s="4" t="str">
+        <f>R2&amp;" ("&amp;S2&amp;"-"&amp;T2&amp;")"</f>
+        <v>0.921 (0.636-1.231)</v>
+      </c>
+      <c r="R2" s="3">
+        <f>ROUNDDOWN(D2,3)</f>
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="S2" s="3">
+        <f t="shared" ref="S2:T2" si="0">ROUNDDOWN(E2,3)</f>
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="T2" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2310000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.94331731524586004</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.65811253670056702</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.2567274776800399</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.39601287161724</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.55028710224474198</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1.24568031154989</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.72523242859379</v>
+      </c>
+      <c r="L3" s="4" t="str">
+        <f t="shared" ref="L3:L41" si="1">R3&amp;" ("&amp;S3&amp;"-"&amp;T3&amp;")"</f>
+        <v>0.943 (0.658-1.256)</v>
+      </c>
+      <c r="R3" s="3">
+        <f t="shared" ref="R3:R41" si="2">ROUNDDOWN(D3,3)</f>
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="S3" s="3">
+        <f t="shared" ref="S3:S41" si="3">ROUNDDOWN(E3,3)</f>
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="T3" s="3">
+        <f t="shared" ref="T3:T41" si="4">ROUNDDOWN(F3,3)</f>
+        <v>1.256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.93214935884945704</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.65395067817970498</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.24397610161024</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.35815482407064</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.55554956781599996</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1.2277118516750201</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.71034012297194904</v>
+      </c>
+      <c r="L4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.932 (0.653-1.243)</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" si="3"/>
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" si="4"/>
+        <v>1.2430000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.91808180724214805</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.64669218923238903</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.2197873703547699</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.3632043706411501</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.53311628308014503</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.2116531497541401</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.70705838461265902</v>
+      </c>
+      <c r="L5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.918 (0.646-1.219)</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="T5" s="3">
+        <f t="shared" si="4"/>
+        <v>1.2190000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.94139186567493005</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.65841769186726096</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.24405091942864</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.3856276839111501</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.55327467237538197</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1.2457430854285101</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.71371632638627702</v>
+      </c>
+      <c r="L6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.941 (0.658-1.244)</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="3"/>
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" si="4"/>
+        <v>1.244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.91675539279817098</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.62796363628477103</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.2403453751465601</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.06812343308003</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.74301488671953997</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.20747998798779</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.68445093840943605</v>
+      </c>
+      <c r="L7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.916 (0.627-1.24)</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.627</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="4"/>
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.92041550355439805</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.62767076010857403</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.2387453087654701</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.0714450500488999</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.74688408672325501</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1.20951005281971</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.68971550994907105</v>
+      </c>
+      <c r="L8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.92 (0.627-1.238)</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.92</v>
+      </c>
+      <c r="S8" s="3">
+        <f t="shared" si="3"/>
+        <v>0.627</v>
+      </c>
+      <c r="T8" s="3">
+        <f t="shared" si="4"/>
+        <v>1.238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.91754781635802296</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.62855072636209597</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.2339532537662601</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1.0647378575170501</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.74779829348982596</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1.2052937591453201</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.68638257773918898</v>
+      </c>
+      <c r="L9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.917 (0.628-1.233)</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" si="2"/>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="S9" s="3">
+        <f t="shared" si="3"/>
+        <v>0.628</v>
+      </c>
+      <c r="T9" s="3">
+        <f t="shared" si="4"/>
+        <v>1.2330000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.91457995058380503</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.62193806691096998</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.23396287229811</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1.0600397668621699</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.74659231404260795</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1.1966811705409699</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.68909365243716303</v>
+      </c>
+      <c r="L10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.914 (0.621-1.233)</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" si="3"/>
+        <v>0.621</v>
+      </c>
+      <c r="T10" s="3">
+        <f t="shared" si="4"/>
+        <v>1.2330000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.90887705408372699</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.621632688439686</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.22946567354508</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.0564502160656499</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.73902185284579702</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1.19441763127763</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.67885263336420898</v>
+      </c>
+      <c r="L11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.908 (0.621-1.229)</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="S11" s="3">
+        <f t="shared" si="3"/>
+        <v>0.621</v>
+      </c>
+      <c r="T11" s="3">
+        <f t="shared" si="4"/>
+        <v>1.2290000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.87052974979963005</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.58917060592753101</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.17425212651432</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.00983950081094</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.70980508120430097</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1.1363106056343399</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.65247712029873495</v>
+      </c>
+      <c r="L12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.87 (0.589-1.174)</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.87</v>
+      </c>
+      <c r="S12" s="3">
+        <f t="shared" si="3"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="T12" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1739999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.81752233783834205</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.54186149579909804</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.1211016974882599</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.93824032245512201</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.67647965229154094</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1.0485114120582</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.62932681213489705</v>
+      </c>
+      <c r="L13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.817 (0.541-1.121)</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="2"/>
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="S13" s="3">
+        <f t="shared" si="3"/>
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="T13" s="3">
+        <f t="shared" si="4"/>
+        <v>1.121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.84362879591792705</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.55999325882020301</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.1481844277577999</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.97098181952780604</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.69533534134478703</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1.08528820882551</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.64695185858403703</v>
+      </c>
+      <c r="L14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.843 (0.559-1.148)</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="S14" s="3">
+        <f t="shared" si="3"/>
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="T14" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1479999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.81545564777964097</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.54415113120172798</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.14318484258662</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.939043825758205</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.67163413369019398</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1.0561389201034601</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.61908177101555695</v>
+      </c>
+      <c r="L15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.815 (0.544-1.143)</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="2"/>
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" si="3"/>
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="T15" s="3">
+        <f t="shared" si="4"/>
+        <v>1.143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.87036857989863903</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.579737513295847</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1.1897461035201899</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1.0247625031765399</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.69532553017750798</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1.1430054519185699</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.65445405507021104</v>
+      </c>
+      <c r="L16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.87 (0.579-1.189)</v>
+      </c>
+      <c r="R16" s="3">
+        <f t="shared" si="2"/>
+        <v>0.87</v>
+      </c>
+      <c r="S16" s="3">
+        <f t="shared" si="3"/>
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="T16" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.87314185265482402</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.60733469603847701</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1.1871064590840601</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1.3104080722199301</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.49962296743253898</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1.1403683798390301</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.68762796169903695</v>
+      </c>
+      <c r="L17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.873 (0.607-1.187)</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.873</v>
+      </c>
+      <c r="S17" s="3">
+        <f t="shared" si="3"/>
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="T17" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.83658740931512598</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.56437516410938204</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.1381859950575499</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.2391321111015301</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.48744731105626199</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1.0993892406250401</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.66690894396651601</v>
+      </c>
+      <c r="L18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.836 (0.564-1.138)</v>
+      </c>
+      <c r="R18" s="3">
+        <f t="shared" si="2"/>
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="S18" s="3">
+        <f t="shared" si="3"/>
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="T18" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1379999999999999</v>
+      </c>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.85550727622887002</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.57892858464428198</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.1677576567618499</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1.24875209984569</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.508600153945589</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1.1165209232039099</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.67442741843644105</v>
+      </c>
+      <c r="L19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.855 (0.578-1.167)</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="S19" s="3">
+        <f t="shared" si="3"/>
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="T19" s="3">
+        <f t="shared" si="4"/>
+        <v>1.167</v>
+      </c>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.82232332260591501</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.558675883828883</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1.1081268409810701</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.2267909534614201</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.47442401766924602</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1.08586367792264</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.65449206489112599</v>
+      </c>
+      <c r="L20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.822 (0.558-1.108)</v>
+      </c>
+      <c r="R20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="S20" s="3">
+        <f t="shared" si="3"/>
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="T20" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.89476447229331102</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.60649129992909701</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1.20229121154999</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1.34473879964773</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.51101197313632796</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1.18067209956825</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.69923850344410099</v>
+      </c>
+      <c r="L21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.894 (0.606-1.202)</v>
+      </c>
+      <c r="R21" s="3">
+        <f t="shared" si="2"/>
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="S21" s="3">
+        <f t="shared" si="3"/>
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="T21" s="3">
+        <f t="shared" si="4"/>
+        <v>1.202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.94938044926493603</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.741473803848548</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1.1918994031399699</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1.19806457885439</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.68946204079215101</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1.02880596903333</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.88503051987343895</v>
+      </c>
+      <c r="L22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.949 (0.741-1.191)</v>
+      </c>
+      <c r="R22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="S22" s="3">
+        <f t="shared" si="3"/>
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="T22" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1910000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.96806725218411305</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.75034993849236598</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1.2285804412801</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1.21398276425677</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.70914233879380295</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1.0469923564807999</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.91358715397754098</v>
+      </c>
+      <c r="L23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.968 (0.75-1.228)</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="T23" s="3">
+        <f t="shared" si="4"/>
+        <v>1.228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.94944001724377003</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.74527351585804902</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.19651677284214</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1.18079447503349</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.70347020867500398</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1.02911615558319</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.89258973853634804</v>
+      </c>
+      <c r="L24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.949 (0.745-1.196)</v>
+      </c>
+      <c r="R24" s="3">
+        <f t="shared" si="2"/>
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="S24" s="3">
+        <f t="shared" si="3"/>
+        <v>0.745</v>
+      </c>
+      <c r="T24" s="3">
+        <f t="shared" si="4"/>
+        <v>1.196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.92356333586795802</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.71847421658372601</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1.1591923885409801</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1.1515417267649599</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.68190490526460401</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.98651369106434394</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.88170756741082501</v>
+      </c>
+      <c r="L25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.923 (0.718-1.159)</v>
+      </c>
+      <c r="R25" s="3">
+        <f t="shared" si="2"/>
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="S25" s="3">
+        <f t="shared" si="3"/>
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="T25" s="3">
+        <f t="shared" si="4"/>
+        <v>1.159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.97590381658999903</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.76222213644662495</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1.2231097114831799</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1.2275147802923401</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.71191789592425903</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1.0611193278408</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.91375306580736504</v>
+      </c>
+      <c r="L26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.975 (0.762-1.223)</v>
+      </c>
+      <c r="R26" s="3">
+        <f t="shared" si="2"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="S26" s="3">
+        <f t="shared" si="3"/>
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="T26" s="3">
+        <f t="shared" si="4"/>
+        <v>1.2230000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.91838147908781798</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.71015643040237497</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1.1678726722895501</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.906536637192074</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.93492125105602197</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1.0140807792369</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.841325237188428</v>
+      </c>
+      <c r="L27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.918 (0.71-1.167)</v>
+      </c>
+      <c r="R27" s="3">
+        <f t="shared" si="2"/>
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="S27" s="3">
+        <f t="shared" si="3"/>
+        <v>0.71</v>
+      </c>
+      <c r="T27" s="3">
+        <f t="shared" si="4"/>
+        <v>1.167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.92060335060746401</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.714523756174824</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1.1611389672719601</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.91358808936346103</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.93033737678638395</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1.02562881201597</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.83592442907718301</v>
+      </c>
+      <c r="L28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.92 (0.714-1.161)</v>
+      </c>
+      <c r="R28" s="3">
+        <f t="shared" si="2"/>
+        <v>0.92</v>
+      </c>
+      <c r="S28" s="3">
+        <f t="shared" si="3"/>
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="T28" s="3">
+        <f t="shared" si="4"/>
+        <v>1.161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.91944893040768105</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.71490181826486099</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1.1574394466032401</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.91078371902221</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.931498366548978</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1.0209692089689499</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.83798461500943899</v>
+      </c>
+      <c r="L29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.919 (0.714-1.157)</v>
+      </c>
+      <c r="R29" s="3">
+        <f t="shared" si="2"/>
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="S29" s="3">
+        <f t="shared" si="3"/>
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="T29" s="3">
+        <f t="shared" si="4"/>
+        <v>1.157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.92010276863599505</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.71610588887114301</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1.16509733141434</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.91055187585313002</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.93339903632519505</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1.02337069003161</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.83788974933444105</v>
+      </c>
+      <c r="L30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.92 (0.716-1.165)</v>
+      </c>
+      <c r="R30" s="3">
+        <f t="shared" si="2"/>
+        <v>0.92</v>
+      </c>
+      <c r="S30" s="3">
+        <f t="shared" si="3"/>
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="T30" s="3">
+        <f t="shared" si="4"/>
+        <v>1.165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.92311432519418801</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.70949908768848902</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1.1683279253782699</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.91387383315537196</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.93597275412247105</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1.02057450612336</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.84440212391708802</v>
+      </c>
+      <c r="L31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.923 (0.709-1.168)</v>
+      </c>
+      <c r="R31" s="3">
+        <f t="shared" si="2"/>
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="S31" s="3">
+        <f t="shared" si="3"/>
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="T31" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1679999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.84609303672366398</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.652275256977775</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1.0750370978046599</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.84169864730132904</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.85217280738255097</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.93642298085256703</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0.78081835595906501</v>
+      </c>
+      <c r="L32" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.846 (0.652-1.075)</v>
+      </c>
+      <c r="R32" s="3">
+        <f t="shared" si="2"/>
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="S32" s="3">
+        <f t="shared" si="3"/>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="T32" s="3">
+        <f t="shared" si="4"/>
+        <v>1.075</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.78865257522550802</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.59772817264836897</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1.0154601117291999</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.77916970562854104</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.80188025171210897</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.860692662612773</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.73806914096089304</v>
+      </c>
+      <c r="L33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.788 (0.597-1.015)</v>
+      </c>
+      <c r="R33" s="3">
+        <f t="shared" si="2"/>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="S33" s="3">
+        <f t="shared" si="3"/>
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="T33" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0149999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.81148618980418197</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.61647557816707499</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1.04229004698755</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.79636704249246804</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.832744807636563</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.87774209868706099</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0.76288971647445203</v>
+      </c>
+      <c r="L34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.811 (0.616-1.042)</v>
+      </c>
+      <c r="R34" s="3">
+        <f t="shared" si="2"/>
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="S34" s="3">
+        <f t="shared" si="3"/>
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="T34" s="3">
+        <f t="shared" si="4"/>
+        <v>1.042</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.78711939203336101</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.60264716215803305</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1.0135378119309999</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.78139358257175695</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.79506095055959203</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.86734315540953999</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0.72213212045965802</v>
+      </c>
+      <c r="L35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.787 (0.602-1.013)</v>
+      </c>
+      <c r="R35" s="3">
+        <f t="shared" si="2"/>
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="S35" s="3">
+        <f t="shared" si="3"/>
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="T35" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0129999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.84769482923755302</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.649149811046008</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1.0808680590545201</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.84490534951410501</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.85154540752648</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0.93213807410136595</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0.78832219881096799</v>
+      </c>
+      <c r="L36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.847 (0.649-1.08)</v>
+      </c>
+      <c r="R36" s="3">
+        <f t="shared" si="2"/>
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="S36" s="3">
+        <f t="shared" si="3"/>
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="T36" s="3">
+        <f t="shared" si="4"/>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.87871728456422604</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.67098274641594502</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1.12264406684017</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1.12944753467328</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.62222999364878295</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.95031091075581398</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0.84404404992411997</v>
+      </c>
+      <c r="L37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.878 (0.67-1.122)</v>
+      </c>
+      <c r="R37" s="3">
+        <f t="shared" si="2"/>
+        <v>0.878</v>
+      </c>
+      <c r="S37" s="3">
+        <f t="shared" si="3"/>
+        <v>0.67</v>
+      </c>
+      <c r="T37" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1220000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.82871449802539399</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.63357657593988503</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1.0686602454487599</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1.0512747613281399</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.59751924443922899</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.89232332550264704</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0.80516515777251596</v>
+      </c>
+      <c r="L38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.828 (0.633-1.068)</v>
+      </c>
+      <c r="R38" s="3">
+        <f t="shared" si="2"/>
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="S38" s="3">
+        <f t="shared" si="3"/>
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="T38" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0680000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.84391478498513695</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.64160639294547595</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1.0824292862092699</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1.0580561875828101</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.61838601448478203</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.90874824715900704</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0.81806663645380395</v>
+      </c>
+      <c r="L39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.843 (0.641-1.082)</v>
+      </c>
+      <c r="R39" s="3">
+        <f t="shared" si="2"/>
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="S39" s="3">
+        <f t="shared" si="3"/>
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="T39" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0820000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.79683122565895304</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.60591688388909903</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1.01811267425412</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1.0063450632643101</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.57805352347486105</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.85932541868585</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0.77197180830211398</v>
+      </c>
+      <c r="L40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.796 (0.605-1.018)</v>
+      </c>
+      <c r="R40" s="3">
+        <f t="shared" si="2"/>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="S40" s="3">
+        <f t="shared" si="3"/>
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="T40" s="3">
+        <f t="shared" si="4"/>
+        <v>1.018</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.89962684726208397</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.69111676813415301</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1.14083447184844</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1.157171431092</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.63639443914441396</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.974179556433307</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0.86648682533963495</v>
+      </c>
+      <c r="L41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0.899 (0.691-1.14)</v>
+      </c>
+      <c r="R41" s="3">
+        <f t="shared" si="2"/>
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="S41" s="3">
+        <f t="shared" si="3"/>
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="T41" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>